--- a/pred_ohlcv/54_21/2019-10-31 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 DAD ohlcv.xlsx
@@ -1068,7 +1068,7 @@
         <v>-1267809.969573206</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1267809.969573206</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1270264.206773206</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1270264.206773206</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1270264.206773206</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1274341.902873206</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1274343.198773206</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1279766.784473206</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1280237.292473206</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1291092.819273206</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1291092.819273206</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-953363.8128072126</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-953363.8128072126</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-953363.8128072126</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-953363.8128072126</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-992363.8128072126</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-992363.8128072126</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-992376.7943072126</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-992536.2810072126</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1276520.286607213</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1303304.294107213</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1296484.027207213</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1294598.917607213</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1287532.826207213</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1682751.285165954</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1572969.040865954</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1572969.040865954</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1554480.222062107</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1149474.621269194</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1108600.028664754</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1087497.331593446</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1090545.696893446</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1081881.984014614</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1062271.873214614</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1020180.660590362</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-990893.0172874634</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1006538.944893875</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1039656.269700199</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1028069.094188781</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1028888.385288781</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-947412.2939892304</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-895324.5931841244</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-952161.8012534075</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-902740.8150751125</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-953186.9672847895</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1004241.889025662</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1015820.223611956</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1084021.921125506</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1093162.757418511</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-31 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 DAD ohlcv.xlsx
@@ -1068,7 +1068,7 @@
         <v>-1267809.969573206</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1267809.969573206</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1270264.206773206</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1270264.206773206</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1270264.206773206</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1274341.902873206</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1274343.198773206</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1279766.784473206</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1280237.292473206</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1291092.819273206</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1291092.819273206</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1291092.819273206</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1291092.819273206</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1291095.771673206</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1307685.474673206</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1307512.218073206</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1307512.218073206</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1682751.285165954</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1572969.040865954</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1572969.040865954</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1554480.222062107</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1149474.621269194</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1108600.028664754</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1087497.331593446</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1090545.696893446</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1081881.984014614</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1062271.873214614</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1020180.660590362</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-990893.0172874634</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1006538.944893875</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1039656.269700199</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1028069.094188781</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1028888.385288781</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-947412.2939892304</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-895324.5931841244</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-952161.8012534075</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-902740.8150751125</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-953186.9672847895</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1004241.889025662</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1015820.223611956</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1084021.921125506</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1118851.945891554</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
